--- a/test_cases/PE-53/TC-5302.xlsx
+++ b/test_cases/PE-53/TC-5302.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B72FCA2-9B40-4C8E-A690-954B3E7D662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C6939-5099-47DD-9E8F-A28922156B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>TC-5302</t>
+  </si>
+  <si>
+    <t>User must be logged</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1206,9 @@
       <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>

--- a/test_cases/PE-53/TC-5302.xlsx
+++ b/test_cases/PE-53/TC-5302.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C6939-5099-47DD-9E8F-A28922156B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705832F2-C402-4140-9F02-3C870AA78A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect Report - Template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -180,13 +181,85 @@
   </si>
   <si>
     <t>User must be logged</t>
+  </si>
+  <si>
+    <t>Falta un campo de email secundario.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Field lack: A field to edit the secondary email is not in the form.</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>You cant see anythin of the field "Secondary Email"</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page http://127.0.0.1:5000/account/profile/edit</t>
+  </si>
+  <si>
+    <t>2- Go to edit user</t>
+  </si>
+  <si>
+    <t>3- Complete the field "Secondary email"</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>A page showing the correspondent field</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>The Page dont show the field</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Affected User Story: US-2</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome, v107</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000/account/profile/edit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Test Case TC-002 covers this scenario</t>
+  </si>
+  <si>
+    <t>Critical severity - The field not appear.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +362,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +400,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -586,6 +680,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -594,7 +773,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -741,19 +920,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -772,7 +996,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1070,11 +1294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" activeCellId="1" sqref="G26:H26 E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -1102,10 +1326,10 @@
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1500,10 +1724,10 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="40"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="40" t="s">
         <v>33</v>
       </c>
@@ -1517,9 +1741,11 @@
       </c>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+    <row r="26" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="67"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -1528,18 +1754,18 @@
       <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
@@ -1548,8 +1774,8 @@
       <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
@@ -1558,8 +1784,8 @@
       <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
@@ -1568,25 +1794,188 @@
       <c r="N30" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887EA127-856D-4704-8A7B-E352D59EB504}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1722,15 +2111,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1754,10 +2147,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test_cases/PE-53/TC-5302.xlsx
+++ b/test_cases/PE-53/TC-5302.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705832F2-C402-4140-9F02-3C870AA78A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF6CFD7-CCF6-424E-AFC9-D11A732616BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Defect Report - Template" sheetId="2" r:id="rId2"/>
+    <sheet name="DF-01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -96,9 +94,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
     <t>Tester: Jane Williams</t>
   </si>
   <si>
@@ -126,15 +121,6 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -183,9 +169,6 @@
     <t>User must be logged</t>
   </si>
   <si>
-    <t>Falta un campo de email secundario.</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -253,6 +236,18 @@
   </si>
   <si>
     <t>Critical severity - The field not appear.</t>
+  </si>
+  <si>
+    <t>Not as expected</t>
+  </si>
+  <si>
+    <t>Mendieta Juan Ignacio</t>
+  </si>
+  <si>
+    <t>Tester: Mendieta Juan Ignacio</t>
+  </si>
+  <si>
+    <t>DF-01</t>
   </si>
 </sst>
 </file>
@@ -773,7 +768,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -850,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,6 +933,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,18 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -974,10 +966,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -996,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1294,56 +1292,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="1" sqref="G26:H26 E26"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="2.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D2" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1362,7 @@
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1372,12 +1373,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>35</v>
+      <c r="B5" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1397,8 +1398,8 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -1412,31 +1413,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -1453,36 +1454,36 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:23" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="G14" s="36" t="s">
+    <row r="14" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:23" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:23" ht="26.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
@@ -1494,195 +1495,165 @@
       <c r="E15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="1:23" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="37" t="s">
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" ht="26.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="37" t="s">
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="26.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="38"/>
-    </row>
-    <row r="17" spans="1:14" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30"/>
+      <c r="G17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="I17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="K17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="M17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="34"/>
+      <c r="G18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="G18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="35"/>
+      <c r="B19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34"/>
       <c r="G19" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="35"/>
+      <c r="B20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="34"/>
       <c r="G20" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="35"/>
+      <c r="B21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1692,12 +1663,12 @@
       <c r="M21" s="5"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1707,12 +1678,12 @@
       <c r="M22" s="5"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1722,89 +1693,90 @@
       <c r="M23" s="5"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G25" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1815,153 +1787,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887EA127-856D-4704-8A7B-E352D59EB504}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="51" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="53" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="B9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="55" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57" t="s">
+      <c r="B11" s="60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="B13" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="61" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="B16" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="61" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="B18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="B20" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="62" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="B22" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="70"/>
+      <c r="B23" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1973,12 +1945,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -2110,6 +2076,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2120,15 +2092,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2146,6 +2109,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
